--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\cov-2_cellular__assay_tracker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasdevito/Documents/GitHub/cov-2_cellular__assay_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3C4A4-15C0-4584-A026-B0C3975859F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD9A1BA-21F1-3440-A1D1-6E8F4BE08A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="415">
   <si>
     <t>Compound Name</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>SARS-CoV-2 (βCoV/KOR/KCDC03/2020)</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">ER α-glucosidase inhibitors </t>
   </si>
   <si>
@@ -1273,9 +1270,6 @@
   </si>
   <si>
     <t>binds to and destabilises the Impα/β1 heterodimer</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1673,15 +1667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,11 +1706,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1741,11 +1732,8 @@
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1774,11 +1762,8 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1803,11 +1788,8 @@
       <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1832,11 +1814,8 @@
       <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1861,11 +1840,8 @@
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1892,11 +1868,8 @@
       <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1921,11 +1894,8 @@
         <v>13</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1950,11 +1920,8 @@
         <v>405</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1977,11 +1944,8 @@
         <v>41</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2004,11 +1968,8 @@
         <v>41</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -2031,11 +1992,8 @@
         <v>47</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -2058,11 +2016,8 @@
         <v>47</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -2085,11 +2040,8 @@
         <v>47</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2112,11 +2064,8 @@
         <v>47</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -2139,11 +2088,8 @@
         <v>47</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -2166,11 +2112,8 @@
         <v>47</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -2193,11 +2136,8 @@
         <v>47</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -2220,11 +2160,8 @@
         <v>47</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -2247,11 +2184,8 @@
         <v>47</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -2276,11 +2210,8 @@
         <v>47</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2305,11 +2236,8 @@
         <v>47</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -2334,11 +2262,8 @@
         <v>47</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
@@ -2363,11 +2288,8 @@
         <v>47</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
@@ -2394,11 +2316,8 @@
       <c r="J25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -2423,11 +2342,8 @@
         <v>47</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
@@ -2452,11 +2368,8 @@
         <v>47</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -2481,11 +2394,8 @@
         <v>47</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
@@ -2510,11 +2420,8 @@
         <v>47</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2539,11 +2446,8 @@
         <v>82</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>83</v>
       </c>
@@ -2564,11 +2468,8 @@
         <v>82</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
@@ -2593,11 +2494,8 @@
         <v>82</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
@@ -2620,11 +2518,8 @@
         <v>82</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
@@ -2649,11 +2544,8 @@
         <v>82</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -2676,11 +2568,8 @@
         <v>82</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
@@ -2701,11 +2590,8 @@
         <v>82</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2724,11 +2610,8 @@
         <v>82</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>92</v>
       </c>
@@ -2749,11 +2632,8 @@
         <v>82</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
@@ -2774,11 +2654,8 @@
         <v>82</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
@@ -2799,11 +2676,8 @@
         <v>82</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
@@ -2826,11 +2700,8 @@
         <v>82</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
@@ -2853,11 +2724,8 @@
         <v>82</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2876,11 +2744,8 @@
         <v>82</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -2899,11 +2764,8 @@
         <v>82</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -2924,11 +2786,8 @@
         <v>82</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
@@ -2951,11 +2810,8 @@
         <v>82</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -2976,11 +2832,8 @@
         <v>82</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
@@ -3001,11 +2854,8 @@
         <v>82</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>110</v>
       </c>
@@ -3026,11 +2876,8 @@
         <v>82</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -3051,11 +2898,8 @@
         <v>82</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>112</v>
       </c>
@@ -3078,11 +2922,8 @@
         <v>82</v>
       </c>
       <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3095,11 +2936,8 @@
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
@@ -3120,11 +2958,8 @@
         <v>82</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
@@ -3147,11 +2982,8 @@
         <v>82</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
@@ -3172,11 +3004,8 @@
         <v>82</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
@@ -3199,11 +3028,8 @@
         <v>82</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>121</v>
       </c>
@@ -3224,11 +3050,8 @@
         <v>82</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>121</v>
       </c>
@@ -3251,11 +3074,8 @@
         <v>82</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>122</v>
       </c>
@@ -3274,11 +3094,8 @@
         <v>82</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3301,11 +3118,8 @@
         <v>82</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
@@ -3326,11 +3140,8 @@
         <v>82</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
@@ -3351,11 +3162,8 @@
         <v>82</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
@@ -3376,11 +3184,8 @@
         <v>82</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
@@ -3401,11 +3206,8 @@
         <v>82</v>
       </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
@@ -3424,11 +3226,8 @@
         <v>82</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -3451,11 +3250,8 @@
         <v>82</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -3476,11 +3272,8 @@
         <v>82</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>131</v>
       </c>
@@ -3501,11 +3294,8 @@
         <v>82</v>
       </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
@@ -3526,11 +3316,8 @@
         <v>82</v>
       </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -3549,11 +3336,8 @@
         <v>82</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>133</v>
       </c>
@@ -3576,11 +3360,8 @@
         <v>82</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>135</v>
       </c>
@@ -3601,11 +3382,8 @@
         <v>82</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
@@ -3626,11 +3404,8 @@
         <v>82</v>
       </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>137</v>
       </c>
@@ -3649,11 +3424,8 @@
         <v>82</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
@@ -3674,11 +3446,8 @@
         <v>82</v>
       </c>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>139</v>
       </c>
@@ -3697,11 +3466,8 @@
         <v>82</v>
       </c>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>139</v>
       </c>
@@ -3724,11 +3490,8 @@
         <v>82</v>
       </c>
       <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3741,11 +3504,8 @@
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>142</v>
       </c>
@@ -3766,11 +3526,8 @@
         <v>82</v>
       </c>
       <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>143</v>
       </c>
@@ -3793,11 +3550,8 @@
         <v>82</v>
       </c>
       <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-    </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3810,11 +3564,8 @@
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>144</v>
       </c>
@@ -3833,11 +3584,8 @@
         <v>82</v>
       </c>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
@@ -3860,11 +3608,8 @@
         <v>82</v>
       </c>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>146</v>
       </c>
@@ -3885,11 +3630,8 @@
         <v>82</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
@@ -3910,11 +3652,8 @@
         <v>82</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>149</v>
       </c>
@@ -3935,11 +3674,8 @@
         <v>82</v>
       </c>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
@@ -3960,11 +3696,8 @@
         <v>82</v>
       </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>150</v>
       </c>
@@ -3983,11 +3716,8 @@
         <v>82</v>
       </c>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>150</v>
       </c>
@@ -4010,11 +3740,8 @@
         <v>82</v>
       </c>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>152</v>
       </c>
@@ -4035,11 +3762,8 @@
         <v>82</v>
       </c>
       <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>154</v>
       </c>
@@ -4060,11 +3784,8 @@
         <v>82</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>157</v>
       </c>
@@ -4081,11 +3802,8 @@
         <v>82</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>157</v>
       </c>
@@ -4108,11 +3826,8 @@
         <v>82</v>
       </c>
       <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>159</v>
       </c>
@@ -4133,11 +3848,8 @@
         <v>82</v>
       </c>
       <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>159</v>
       </c>
@@ -4158,11 +3870,8 @@
         <v>82</v>
       </c>
       <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>162</v>
       </c>
@@ -4183,11 +3892,8 @@
         <v>82</v>
       </c>
       <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>162</v>
       </c>
@@ -4208,11 +3914,8 @@
         <v>82</v>
       </c>
       <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>164</v>
       </c>
@@ -4235,11 +3938,8 @@
         <v>82</v>
       </c>
       <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>166</v>
       </c>
@@ -4260,11 +3960,8 @@
         <v>82</v>
       </c>
       <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>166</v>
       </c>
@@ -4285,11 +3982,8 @@
         <v>82</v>
       </c>
       <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>167</v>
       </c>
@@ -4308,11 +4002,8 @@
         <v>82</v>
       </c>
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>167</v>
       </c>
@@ -4333,11 +4024,8 @@
         <v>82</v>
       </c>
       <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>168</v>
       </c>
@@ -4356,11 +4044,8 @@
         <v>82</v>
       </c>
       <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>168</v>
       </c>
@@ -4383,11 +4068,8 @@
         <v>82</v>
       </c>
       <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>169</v>
       </c>
@@ -4408,11 +4090,8 @@
         <v>82</v>
       </c>
       <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>169</v>
       </c>
@@ -4433,11 +4112,8 @@
         <v>82</v>
       </c>
       <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>170</v>
       </c>
@@ -4456,11 +4132,8 @@
         <v>82</v>
       </c>
       <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -4479,11 +4152,8 @@
         <v>82</v>
       </c>
       <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>173</v>
       </c>
@@ -4504,11 +4174,8 @@
         <v>82</v>
       </c>
       <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>175</v>
       </c>
@@ -4529,11 +4196,8 @@
         <v>82</v>
       </c>
       <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -4554,11 +4218,8 @@
         <v>82</v>
       </c>
       <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>177</v>
       </c>
@@ -4579,11 +4240,8 @@
         <v>82</v>
       </c>
       <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>177</v>
       </c>
@@ -4604,11 +4262,8 @@
         <v>82</v>
       </c>
       <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>179</v>
       </c>
@@ -4627,11 +4282,8 @@
         <v>82</v>
       </c>
       <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>179</v>
       </c>
@@ -4654,11 +4306,8 @@
         <v>82</v>
       </c>
       <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>181</v>
       </c>
@@ -4679,11 +4328,8 @@
         <v>82</v>
       </c>
       <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>183</v>
       </c>
@@ -4704,11 +4350,8 @@
         <v>82</v>
       </c>
       <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>183</v>
       </c>
@@ -4729,11 +4372,8 @@
         <v>82</v>
       </c>
       <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>185</v>
       </c>
@@ -4752,11 +4392,8 @@
         <v>82</v>
       </c>
       <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>186</v>
       </c>
@@ -4775,11 +4412,8 @@
         <v>82</v>
       </c>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>187</v>
       </c>
@@ -4796,11 +4430,8 @@
         <v>82</v>
       </c>
       <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>187</v>
       </c>
@@ -4823,11 +4454,8 @@
         <v>82</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>189</v>
       </c>
@@ -4850,11 +4478,8 @@
         <v>82</v>
       </c>
       <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-    </row>
-    <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -4867,11 +4492,8 @@
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>191</v>
       </c>
@@ -4892,11 +4514,8 @@
         <v>82</v>
       </c>
       <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>191</v>
       </c>
@@ -4917,11 +4536,8 @@
         <v>82</v>
       </c>
       <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>193</v>
       </c>
@@ -4940,11 +4556,8 @@
         <v>82</v>
       </c>
       <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>194</v>
       </c>
@@ -4965,11 +4578,8 @@
         <v>82</v>
       </c>
       <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>195</v>
       </c>
@@ -4988,11 +4598,8 @@
         <v>82</v>
       </c>
       <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>195</v>
       </c>
@@ -5015,11 +4622,8 @@
         <v>82</v>
       </c>
       <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>197</v>
       </c>
@@ -5040,11 +4644,8 @@
         <v>82</v>
       </c>
       <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>197</v>
       </c>
@@ -5065,11 +4666,8 @@
         <v>82</v>
       </c>
       <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>198</v>
       </c>
@@ -5088,11 +4686,8 @@
         <v>82</v>
       </c>
       <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>199</v>
       </c>
@@ -5111,11 +4706,8 @@
         <v>82</v>
       </c>
       <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>199</v>
       </c>
@@ -5136,11 +4728,8 @@
         <v>82</v>
       </c>
       <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>200</v>
       </c>
@@ -5159,11 +4748,8 @@
         <v>82</v>
       </c>
       <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-      <c r="M136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>200</v>
       </c>
@@ -5186,11 +4772,8 @@
         <v>82</v>
       </c>
       <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>202</v>
       </c>
@@ -5211,11 +4794,8 @@
         <v>82</v>
       </c>
       <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>202</v>
       </c>
@@ -5236,11 +4816,8 @@
         <v>82</v>
       </c>
       <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>205</v>
       </c>
@@ -5261,11 +4838,8 @@
         <v>82</v>
       </c>
       <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>205</v>
       </c>
@@ -5286,11 +4860,8 @@
         <v>82</v>
       </c>
       <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>207</v>
       </c>
@@ -5309,11 +4880,8 @@
         <v>82</v>
       </c>
       <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>207</v>
       </c>
@@ -5336,11 +4904,8 @@
         <v>82</v>
       </c>
       <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>208</v>
       </c>
@@ -5361,11 +4926,8 @@
         <v>82</v>
       </c>
       <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
         <v>210</v>
       </c>
@@ -5388,11 +4950,8 @@
         <v>82</v>
       </c>
       <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-    </row>
-    <row r="146" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5405,11 +4964,8 @@
       </c>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>212</v>
       </c>
@@ -5426,11 +4982,8 @@
         <v>82</v>
       </c>
       <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>212</v>
       </c>
@@ -5453,11 +5006,8 @@
         <v>82</v>
       </c>
       <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>214</v>
       </c>
@@ -5478,11 +5028,8 @@
         <v>82</v>
       </c>
       <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>214</v>
       </c>
@@ -5503,11 +5050,8 @@
         <v>82</v>
       </c>
       <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>216</v>
       </c>
@@ -5528,11 +5072,8 @@
         <v>82</v>
       </c>
       <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>216</v>
       </c>
@@ -5553,11 +5094,8 @@
         <v>82</v>
       </c>
       <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>218</v>
       </c>
@@ -5576,11 +5114,8 @@
         <v>82</v>
       </c>
       <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>218</v>
       </c>
@@ -5603,11 +5138,8 @@
         <v>82</v>
       </c>
       <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>220</v>
       </c>
@@ -5630,11 +5162,8 @@
         <v>82</v>
       </c>
       <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>222</v>
       </c>
@@ -5655,11 +5184,8 @@
         <v>82</v>
       </c>
       <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>222</v>
       </c>
@@ -5680,11 +5206,8 @@
         <v>82</v>
       </c>
       <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>224</v>
       </c>
@@ -5707,11 +5230,8 @@
         <v>227</v>
       </c>
       <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>228</v>
       </c>
@@ -5730,11 +5250,8 @@
         <v>227</v>
       </c>
       <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>229</v>
       </c>
@@ -5755,11 +5272,8 @@
         <v>227</v>
       </c>
       <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>231</v>
       </c>
@@ -5780,13 +5294,8 @@
         <v>232</v>
       </c>
       <c r="J161" s="3"/>
-      <c r="K161" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>231</v>
       </c>
@@ -5807,11 +5316,8 @@
         <v>232</v>
       </c>
       <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>233</v>
       </c>
@@ -5834,11 +5340,8 @@
         <v>232</v>
       </c>
       <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>233</v>
       </c>
@@ -5861,11 +5364,8 @@
         <v>232</v>
       </c>
       <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>236</v>
       </c>
@@ -5886,11 +5386,8 @@
         <v>232</v>
       </c>
       <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>236</v>
       </c>
@@ -5911,11 +5408,8 @@
         <v>232</v>
       </c>
       <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>237</v>
       </c>
@@ -5936,11 +5430,8 @@
         <v>232</v>
       </c>
       <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>237</v>
       </c>
@@ -5961,11 +5452,8 @@
         <v>232</v>
       </c>
       <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>238</v>
       </c>
@@ -5986,11 +5474,8 @@
         <v>232</v>
       </c>
       <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>238</v>
       </c>
@@ -6011,11 +5496,8 @@
         <v>232</v>
       </c>
       <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>239</v>
       </c>
@@ -6036,11 +5518,8 @@
         <v>232</v>
       </c>
       <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>239</v>
       </c>
@@ -6061,11 +5540,8 @@
         <v>232</v>
       </c>
       <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>240</v>
       </c>
@@ -6088,11 +5564,8 @@
         <v>232</v>
       </c>
       <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>240</v>
       </c>
@@ -6115,11 +5588,8 @@
         <v>232</v>
       </c>
       <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>241</v>
       </c>
@@ -6142,11 +5612,8 @@
         <v>232</v>
       </c>
       <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>241</v>
       </c>
@@ -6169,11 +5636,8 @@
         <v>232</v>
       </c>
       <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>242</v>
       </c>
@@ -6194,11 +5658,8 @@
         <v>232</v>
       </c>
       <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>242</v>
       </c>
@@ -6219,11 +5680,8 @@
         <v>232</v>
       </c>
       <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>243</v>
       </c>
@@ -6244,11 +5702,8 @@
         <v>232</v>
       </c>
       <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>243</v>
       </c>
@@ -6269,11 +5724,8 @@
         <v>232</v>
       </c>
       <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>244</v>
       </c>
@@ -6294,11 +5746,8 @@
         <v>232</v>
       </c>
       <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>244</v>
       </c>
@@ -6319,11 +5768,8 @@
         <v>232</v>
       </c>
       <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>245</v>
       </c>
@@ -6344,11 +5790,8 @@
         <v>232</v>
       </c>
       <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>245</v>
       </c>
@@ -6369,11 +5812,8 @@
         <v>232</v>
       </c>
       <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>246</v>
       </c>
@@ -6394,11 +5834,8 @@
         <v>232</v>
       </c>
       <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>246</v>
       </c>
@@ -6421,11 +5858,8 @@
         <v>232</v>
       </c>
       <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>247</v>
       </c>
@@ -6446,11 +5880,8 @@
         <v>232</v>
       </c>
       <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>247</v>
       </c>
@@ -6471,11 +5902,8 @@
         <v>232</v>
       </c>
       <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>248</v>
       </c>
@@ -6496,11 +5924,8 @@
         <v>232</v>
       </c>
       <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>248</v>
       </c>
@@ -6521,11 +5946,8 @@
         <v>232</v>
       </c>
       <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>249</v>
       </c>
@@ -6546,11 +5968,8 @@
         <v>232</v>
       </c>
       <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>249</v>
       </c>
@@ -6571,11 +5990,8 @@
         <v>232</v>
       </c>
       <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>250</v>
       </c>
@@ -6596,11 +6012,8 @@
         <v>232</v>
       </c>
       <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>250</v>
       </c>
@@ -6621,11 +6034,8 @@
         <v>232</v>
       </c>
       <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>251</v>
       </c>
@@ -6648,11 +6058,8 @@
         <v>232</v>
       </c>
       <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>251</v>
       </c>
@@ -6675,11 +6082,8 @@
         <v>232</v>
       </c>
       <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>252</v>
       </c>
@@ -6702,11 +6106,8 @@
         <v>232</v>
       </c>
       <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>252</v>
       </c>
@@ -6729,11 +6130,8 @@
         <v>232</v>
       </c>
       <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>254</v>
       </c>
@@ -6754,11 +6152,8 @@
         <v>232</v>
       </c>
       <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>254</v>
       </c>
@@ -6779,11 +6174,8 @@
         <v>232</v>
       </c>
       <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>255</v>
       </c>
@@ -6804,11 +6196,8 @@
         <v>232</v>
       </c>
       <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>255</v>
       </c>
@@ -6829,11 +6218,8 @@
         <v>232</v>
       </c>
       <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>256</v>
       </c>
@@ -6854,11 +6240,8 @@
         <v>232</v>
       </c>
       <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>256</v>
       </c>
@@ -6879,11 +6262,8 @@
         <v>232</v>
       </c>
       <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>259</v>
       </c>
@@ -6904,11 +6284,8 @@
         <v>232</v>
       </c>
       <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>259</v>
       </c>
@@ -6929,11 +6306,8 @@
         <v>232</v>
       </c>
       <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>260</v>
       </c>
@@ -6956,11 +6330,8 @@
         <v>232</v>
       </c>
       <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>260</v>
       </c>
@@ -6981,11 +6352,8 @@
         <v>232</v>
       </c>
       <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>261</v>
       </c>
@@ -7006,11 +6374,8 @@
         <v>232</v>
       </c>
       <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>261</v>
       </c>
@@ -7031,11 +6396,8 @@
         <v>232</v>
       </c>
       <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>262</v>
       </c>
@@ -7058,11 +6420,8 @@
         <v>232</v>
       </c>
       <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>262</v>
       </c>
@@ -7085,11 +6444,8 @@
         <v>232</v>
       </c>
       <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>263</v>
       </c>
@@ -7110,11 +6466,8 @@
         <v>232</v>
       </c>
       <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>263</v>
       </c>
@@ -7135,11 +6488,8 @@
         <v>232</v>
       </c>
       <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>264</v>
       </c>
@@ -7164,11 +6514,8 @@
         <v>269</v>
       </c>
       <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>270</v>
       </c>
@@ -7193,11 +6540,8 @@
         <v>269</v>
       </c>
       <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>273</v>
       </c>
@@ -7222,11 +6566,8 @@
         <v>269</v>
       </c>
       <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>275</v>
       </c>
@@ -7251,11 +6592,8 @@
         <v>269</v>
       </c>
       <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>277</v>
       </c>
@@ -7282,11 +6620,8 @@
         <v>269</v>
       </c>
       <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>280</v>
       </c>
@@ -7313,11 +6648,8 @@
         <v>269</v>
       </c>
       <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>282</v>
       </c>
@@ -7340,11 +6672,8 @@
         <v>287</v>
       </c>
       <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>288</v>
       </c>
@@ -7369,11 +6698,8 @@
         <v>287</v>
       </c>
       <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>290</v>
       </c>
@@ -7398,11 +6724,8 @@
         <v>287</v>
       </c>
       <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>292</v>
       </c>
@@ -7421,17 +6744,14 @@
         <v>286</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I224" s="6" t="s">
         <v>287</v>
       </c>
       <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>293</v>
       </c>
@@ -7456,11 +6776,8 @@
         <v>287</v>
       </c>
       <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>295</v>
       </c>
@@ -7485,11 +6802,8 @@
         <v>287</v>
       </c>
       <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>297</v>
       </c>
@@ -7516,11 +6830,8 @@
         <v>301</v>
       </c>
       <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>302</v>
       </c>
@@ -7541,17 +6852,14 @@
         <v>286</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I228" s="6" t="s">
         <v>307</v>
       </c>
       <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>308</v>
       </c>
@@ -7576,11 +6884,8 @@
         <v>311</v>
       </c>
       <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>312</v>
       </c>
@@ -7603,11 +6908,8 @@
         <v>316</v>
       </c>
       <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>317</v>
       </c>
@@ -7630,11 +6932,8 @@
         <v>316</v>
       </c>
       <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>318</v>
       </c>
@@ -7661,11 +6960,8 @@
         <v>322</v>
       </c>
       <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>323</v>
       </c>
@@ -7692,11 +6988,8 @@
         <v>322</v>
       </c>
       <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>324</v>
       </c>
@@ -7723,11 +7016,8 @@
         <v>322</v>
       </c>
       <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>290</v>
       </c>
@@ -7752,11 +7042,8 @@
         <v>322</v>
       </c>
       <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>318</v>
       </c>
@@ -7781,11 +7068,8 @@
         <v>322</v>
       </c>
       <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>323</v>
       </c>
@@ -7810,11 +7094,8 @@
         <v>322</v>
       </c>
       <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>324</v>
       </c>
@@ -7839,11 +7120,8 @@
         <v>322</v>
       </c>
       <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>327</v>
       </c>
@@ -7868,11 +7146,8 @@
         <v>330</v>
       </c>
       <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>331</v>
       </c>
@@ -7897,11 +7172,8 @@
         <v>330</v>
       </c>
       <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>333</v>
       </c>
@@ -7926,11 +7198,8 @@
         <v>330</v>
       </c>
       <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>335</v>
       </c>
@@ -7957,11 +7226,8 @@
         <v>330</v>
       </c>
       <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>290</v>
       </c>
@@ -7986,11 +7252,8 @@
         <v>330</v>
       </c>
       <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>37</v>
       </c>
@@ -8015,11 +7278,8 @@
         <v>330</v>
       </c>
       <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>337</v>
       </c>
@@ -8044,11 +7304,8 @@
         <v>330</v>
       </c>
       <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>26</v>
       </c>
@@ -8069,11 +7326,8 @@
         <v>330</v>
       </c>
       <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>339</v>
       </c>
@@ -8098,11 +7352,8 @@
         <v>343</v>
       </c>
       <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>339</v>
       </c>
@@ -8127,11 +7378,8 @@
         <v>343</v>
       </c>
       <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>344</v>
       </c>
@@ -8156,11 +7404,8 @@
         <v>343</v>
       </c>
       <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>344</v>
       </c>
@@ -8185,11 +7430,8 @@
         <v>343</v>
       </c>
       <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>346</v>
       </c>
@@ -8214,11 +7456,8 @@
         <v>349</v>
       </c>
       <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>350</v>
       </c>
@@ -8245,11 +7484,8 @@
       <c r="J252" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>353</v>
       </c>
@@ -8270,11 +7506,8 @@
         <v>352</v>
       </c>
       <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>355</v>
       </c>
@@ -8295,11 +7528,8 @@
         <v>352</v>
       </c>
       <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>356</v>
       </c>
@@ -8320,11 +7550,8 @@
         <v>352</v>
       </c>
       <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>357</v>
       </c>
@@ -8345,11 +7572,8 @@
         <v>352</v>
       </c>
       <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>358</v>
       </c>
@@ -8370,11 +7594,8 @@
         <v>352</v>
       </c>
       <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>359</v>
       </c>
@@ -8395,11 +7616,8 @@
         <v>352</v>
       </c>
       <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>360</v>
       </c>
@@ -8420,11 +7638,8 @@
         <v>352</v>
       </c>
       <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>361</v>
       </c>
@@ -8445,11 +7660,8 @@
         <v>352</v>
       </c>
       <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>362</v>
       </c>
@@ -8470,11 +7682,8 @@
         <v>352</v>
       </c>
       <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>363</v>
       </c>
@@ -8495,11 +7704,8 @@
         <v>365</v>
       </c>
       <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>366</v>
       </c>
@@ -8520,11 +7726,8 @@
         <v>365</v>
       </c>
       <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>367</v>
       </c>
@@ -8545,11 +7748,8 @@
         <v>365</v>
       </c>
       <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>368</v>
       </c>
@@ -8570,11 +7770,8 @@
         <v>365</v>
       </c>
       <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>369</v>
       </c>
@@ -8595,11 +7792,8 @@
         <v>365</v>
       </c>
       <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>370</v>
       </c>
@@ -8620,11 +7814,8 @@
         <v>365</v>
       </c>
       <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
-      <c r="M267" s="3"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>371</v>
       </c>
@@ -8645,11 +7836,8 @@
         <v>365</v>
       </c>
       <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
-      <c r="L268" s="10"/>
-      <c r="M268" s="10"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>373</v>
       </c>
@@ -8672,11 +7860,8 @@
         <v>375</v>
       </c>
       <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>376</v>
       </c>
@@ -8699,11 +7884,8 @@
         <v>375</v>
       </c>
       <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>377</v>
       </c>
@@ -8726,11 +7908,8 @@
         <v>375</v>
       </c>
       <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-      <c r="L271" s="3"/>
-      <c r="M271" s="3"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>246</v>
       </c>
@@ -8753,11 +7932,8 @@
         <v>375</v>
       </c>
       <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3"/>
-      <c r="M272" s="3"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>378</v>
       </c>
@@ -8780,11 +7956,8 @@
         <v>375</v>
       </c>
       <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>379</v>
       </c>
@@ -8807,11 +7980,8 @@
         <v>375</v>
       </c>
       <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>380</v>
       </c>
@@ -8834,11 +8004,8 @@
         <v>375</v>
       </c>
       <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>381</v>
       </c>
@@ -8861,11 +8028,8 @@
         <v>375</v>
       </c>
       <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>382</v>
       </c>
@@ -8888,11 +8052,8 @@
         <v>375</v>
       </c>
       <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>356</v>
       </c>
@@ -8915,11 +8076,8 @@
         <v>375</v>
       </c>
       <c r="J278" s="3"/>
-      <c r="K278" s="3"/>
-      <c r="L278" s="3"/>
-      <c r="M278" s="3"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>295</v>
       </c>
@@ -8942,11 +8100,8 @@
         <v>375</v>
       </c>
       <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>255</v>
       </c>
@@ -8969,11 +8124,8 @@
         <v>375</v>
       </c>
       <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>383</v>
       </c>
@@ -8996,11 +8148,8 @@
         <v>375</v>
       </c>
       <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
-      <c r="L281" s="3"/>
-      <c r="M281" s="3"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>384</v>
       </c>
@@ -9023,11 +8172,8 @@
         <v>375</v>
       </c>
       <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>385</v>
       </c>
@@ -9050,16 +8196,13 @@
         <v>375</v>
       </c>
       <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B284" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>386</v>
@@ -9077,16 +8220,13 @@
         <v>388</v>
       </c>
       <c r="J284" s="3"/>
-      <c r="K284" s="3"/>
-      <c r="L284" s="3"/>
-      <c r="M284" s="3"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>389</v>
@@ -9104,11 +8244,8 @@
         <v>388</v>
       </c>
       <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3"/>
-      <c r="M285" s="3"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>295</v>
       </c>
@@ -9131,11 +8268,8 @@
         <v>392</v>
       </c>
       <c r="J286" s="3"/>
-      <c r="K286" s="3"/>
-      <c r="L286" s="3"/>
-      <c r="M286" s="3"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>142</v>
       </c>
@@ -9158,11 +8292,8 @@
         <v>392</v>
       </c>
       <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
-      <c r="L287" s="3"/>
-      <c r="M287" s="3"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
         <v>393</v>
       </c>
@@ -9185,11 +8316,8 @@
         <v>392</v>
       </c>
       <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="M288" s="10"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>394</v>
       </c>
@@ -9206,19 +8334,14 @@
         <v>397</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I289" s="3" t="s">
         <v>398</v>
       </c>
       <c r="J289" s="3"/>
-      <c r="K289" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="L289" s="3"/>
-      <c r="M289" s="3"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>295</v>
       </c>
@@ -9241,11 +8364,8 @@
         <v>401</v>
       </c>
       <c r="J290" s="3"/>
-      <c r="K290" s="3"/>
-      <c r="L290" s="3"/>
-      <c r="M290" s="3"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>402</v>
       </c>
@@ -9270,24 +8390,36 @@
         <v>401</v>
       </c>
       <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="3"/>
-      <c r="M291" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
+  <mergeCells count="45">
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
     <mergeCell ref="A145:A146"/>
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="C145:C146"/>
@@ -9300,42 +8432,12 @@
     <mergeCell ref="D123:D124"/>
     <mergeCell ref="E123:E124"/>
     <mergeCell ref="F123:F124"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{40ADB83B-755C-46E2-B01A-A62AAAF261FA}"/>
